--- a/7_other/overview.xlsx
+++ b/7_other/overview.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,29 +8,44 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nakirsch/Documents/Georgetown 2.1/Thesis/git/nak-thesis/7_other/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{239F1D79-D237-9843-94A3-347745CCECD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{5FA02964-AB2F-A14B-8A1A-D5344863AE31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="1000" windowWidth="25040" windowHeight="14080" activeTab="1"/>
+    <workbookView xWindow="140" yWindow="500" windowWidth="25040" windowHeight="14080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sub1_all" sheetId="1" r:id="rId1"/>
     <sheet name="sub1_bal_all" sheetId="3" r:id="rId2"/>
+    <sheet name="bal_unw" sheetId="5" r:id="rId3"/>
+    <sheet name="bal_w" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">bal_unw!$B$1:$G$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">bal_w!$B$1:$G$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">sub1_all!$B$1:$I$13</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">sub1_bal_all!$B$1:$I$13</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="72" uniqueCount="30">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="310" uniqueCount="136">
   <si>
     <t>N</t>
   </si>
@@ -120,13 +135,331 @@
   </si>
   <si>
     <t xml:space="preserve">Countries' Paris pledges are rated as 0 (weak) or 1 (strong) based on if Watson et al. (2019)'s characterization of their ability to reduce GHG emissions by 50% by 2030. Countries have weak pledges if they either have no pledge, an insufficient pledge, or a partially insufficient pledge. Countries have strong pledges if they have a partially sufficient or a sufficient pledge. </t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Pairwise t-test</t>
+  </si>
+  <si>
+    <t>Mean/(SE)</t>
+  </si>
+  <si>
+    <t>Mean difference</t>
+  </si>
+  <si>
+    <t>13491</t>
+  </si>
+  <si>
+    <t>0.113</t>
+  </si>
+  <si>
+    <t>4890</t>
+  </si>
+  <si>
+    <t>0.099</t>
+  </si>
+  <si>
+    <t>0.014***</t>
+  </si>
+  <si>
+    <t>(0.002)</t>
+  </si>
+  <si>
+    <t>(0.003)</t>
+  </si>
+  <si>
+    <t>24010</t>
+  </si>
+  <si>
+    <t>0.593</t>
+  </si>
+  <si>
+    <t>0.763</t>
+  </si>
+  <si>
+    <t>-0.170***</t>
+  </si>
+  <si>
+    <t>(0.006)</t>
+  </si>
+  <si>
+    <t>1.229</t>
+  </si>
+  <si>
+    <t>1.443</t>
+  </si>
+  <si>
+    <t>-0.214***</t>
+  </si>
+  <si>
+    <t>(0.004)</t>
+  </si>
+  <si>
+    <t>(0.007)</t>
+  </si>
+  <si>
+    <t>23304</t>
+  </si>
+  <si>
+    <t>52.110</t>
+  </si>
+  <si>
+    <t>4856</t>
+  </si>
+  <si>
+    <t>52.396</t>
+  </si>
+  <si>
+    <t>-0.286</t>
+  </si>
+  <si>
+    <t>(0.076)</t>
+  </si>
+  <si>
+    <t>(0.172)</t>
+  </si>
+  <si>
+    <t>4616</t>
+  </si>
+  <si>
+    <t>2.479</t>
+  </si>
+  <si>
+    <t>968</t>
+  </si>
+  <si>
+    <t>2.341</t>
+  </si>
+  <si>
+    <t>0.138***</t>
+  </si>
+  <si>
+    <t>(0.018)</t>
+  </si>
+  <si>
+    <t>(0.038)</t>
+  </si>
+  <si>
+    <t>23050</t>
+  </si>
+  <si>
+    <t>13.636</t>
+  </si>
+  <si>
+    <t>4840</t>
+  </si>
+  <si>
+    <t>13.522</t>
+  </si>
+  <si>
+    <t>0.114***</t>
+  </si>
+  <si>
+    <t>(0.010)</t>
+  </si>
+  <si>
+    <t>(0.019)</t>
+  </si>
+  <si>
+    <t>10.364</t>
+  </si>
+  <si>
+    <t>10.575</t>
+  </si>
+  <si>
+    <t>-0.211***</t>
+  </si>
+  <si>
+    <t>(0.009)</t>
+  </si>
+  <si>
+    <t>18.124</t>
+  </si>
+  <si>
+    <t>18.080</t>
+  </si>
+  <si>
+    <t>0.044**</t>
+  </si>
+  <si>
+    <t>(0.016)</t>
+  </si>
+  <si>
+    <t>Strong pledge</t>
+  </si>
+  <si>
+    <t>504</t>
+  </si>
+  <si>
+    <t>0.177</t>
+  </si>
+  <si>
+    <t>340</t>
+  </si>
+  <si>
+    <t>0.125</t>
+  </si>
+  <si>
+    <t>0.052***</t>
+  </si>
+  <si>
+    <t>(0.012)</t>
+  </si>
+  <si>
+    <t>610</t>
+  </si>
+  <si>
+    <t>0.525</t>
+  </si>
+  <si>
+    <t>0.706</t>
+  </si>
+  <si>
+    <t>-0.181***</t>
+  </si>
+  <si>
+    <t>(0.020)</t>
+  </si>
+  <si>
+    <t>(0.025)</t>
+  </si>
+  <si>
+    <t>0.770</t>
+  </si>
+  <si>
+    <t>1.112</t>
+  </si>
+  <si>
+    <t>-0.342***</t>
+  </si>
+  <si>
+    <t>(0.032)</t>
+  </si>
+  <si>
+    <t>(0.039)</t>
+  </si>
+  <si>
+    <t>468</t>
+  </si>
+  <si>
+    <t>53.965</t>
+  </si>
+  <si>
+    <t>318</t>
+  </si>
+  <si>
+    <t>55.293</t>
+  </si>
+  <si>
+    <t>-1.328*</t>
+  </si>
+  <si>
+    <t>(0.463)</t>
+  </si>
+  <si>
+    <t>(0.535)</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>2.522</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>2.710</t>
+  </si>
+  <si>
+    <t>-0.188</t>
+  </si>
+  <si>
+    <t>(0.120)</t>
+  </si>
+  <si>
+    <t>(0.137)</t>
+  </si>
+  <si>
+    <t>590</t>
+  </si>
+  <si>
+    <t>12.089</t>
+  </si>
+  <si>
+    <t>330</t>
+  </si>
+  <si>
+    <t>12.343</t>
+  </si>
+  <si>
+    <t>-0.254**</t>
+  </si>
+  <si>
+    <t>(0.063)</t>
+  </si>
+  <si>
+    <t>(0.075)</t>
+  </si>
+  <si>
+    <t>9.852</t>
+  </si>
+  <si>
+    <t>10.199</t>
+  </si>
+  <si>
+    <t>-0.347***</t>
+  </si>
+  <si>
+    <t>(0.045)</t>
+  </si>
+  <si>
+    <t>(0.054)</t>
+  </si>
+  <si>
+    <t>16.831</t>
+  </si>
+  <si>
+    <t>17.096</t>
+  </si>
+  <si>
+    <t>-0.265**</t>
+  </si>
+  <si>
+    <t>(0.068)</t>
+  </si>
+  <si>
+    <t>(0.081)</t>
+  </si>
+  <si>
+    <t>Standard errors in parentheses</t>
+  </si>
+  <si>
+    <t>∗ p &lt; 0.05, ∗∗ p &lt; 0.01, ∗∗∗ p &lt; 0.001</t>
+  </si>
+  <si>
+    <t>Non-Missing</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>(1) - (2)</t>
+  </si>
+  <si>
+    <t>(1)</t>
+  </si>
+  <si>
+    <t>(2)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20" x14ac:knownFonts="1">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
@@ -269,6 +602,10 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -463,7 +800,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <start/>
       <end/>
@@ -596,8 +933,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <start/>
+      <end/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -640,25 +986,20 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -667,16 +1008,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="18" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -685,22 +1026,10 @@
     <xf numFmtId="3" fontId="18" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="18" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="18" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="18" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -725,17 +1054,42 @@
     <xf numFmtId="2" fontId="18" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="18" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="18" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="4" fontId="18" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="42" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="42" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="42" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="18" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="18" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="18" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -773,6 +1127,7 @@
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="Normal 2" xfId="42" xr:uid="{855E2C93-528A-B442-BF6D-6F5A1FA9E606}"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
@@ -1088,323 +1443,323 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="58" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="64.796875" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.796875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="64.796875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.796875" style="8" customWidth="1"/>
     <col min="5" max="9" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="2"/>
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" ht="18" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="4"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="13" t="s">
+      <c r="A4" s="1"/>
+      <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="13">
         <v>13491</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="15">
         <v>-0.113</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="15">
         <v>0.27700000000000002</v>
       </c>
-      <c r="H4" s="21">
+      <c r="H4" s="15">
         <v>-1.9930000000000001</v>
       </c>
-      <c r="I4" s="21">
+      <c r="I4" s="15">
         <v>1.9039999999999999</v>
       </c>
-      <c r="J4" s="2"/>
+      <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" ht="102" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="15" t="s">
+      <c r="A5" s="1"/>
+      <c r="B5" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="28">
+      <c r="F5" s="20">
         <v>0.59</v>
       </c>
-      <c r="G5" s="28">
+      <c r="G5" s="20">
         <v>0.49</v>
       </c>
-      <c r="H5" s="28">
+      <c r="H5" s="20">
         <v>0</v>
       </c>
-      <c r="I5" s="28">
+      <c r="I5" s="20">
         <v>1</v>
       </c>
-      <c r="J5" s="2"/>
+      <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" ht="68" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="13" t="s">
+      <c r="A6" s="1"/>
+      <c r="B6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="13">
         <v>23304</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="15">
         <v>52.11</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="15">
         <v>11.56</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="15">
         <v>8.82</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I6" s="15">
         <v>77.760000000000005</v>
       </c>
-      <c r="J6" s="2"/>
+      <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" ht="102" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="15" t="s">
+      <c r="A7" s="1"/>
+      <c r="B7" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="14">
         <v>24010</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="16">
         <v>1.2290000000000001</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="16">
         <v>0.63800000000000001</v>
       </c>
-      <c r="H7" s="22">
+      <c r="H7" s="16">
         <v>-0.871</v>
       </c>
-      <c r="I7" s="22">
+      <c r="I7" s="16">
         <v>2.2360000000000002</v>
       </c>
-      <c r="J7" s="2"/>
+      <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="13" t="s">
+      <c r="A8" s="1"/>
+      <c r="B8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="13">
         <v>24010</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="15">
         <v>10.36</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G8" s="15">
         <v>0.86299999999999999</v>
       </c>
-      <c r="H8" s="24">
+      <c r="H8" s="15">
         <v>6.8949999999999996</v>
       </c>
-      <c r="I8" s="24">
+      <c r="I8" s="15">
         <v>11.73</v>
       </c>
-      <c r="J8" s="2"/>
+      <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="15" t="s">
+      <c r="A9" s="1"/>
+      <c r="B9" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="14">
         <v>24010</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="16">
         <v>13.74</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G9" s="16">
         <v>1.577</v>
       </c>
-      <c r="H9" s="23">
+      <c r="H9" s="16">
         <v>7.5389999999999997</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="16">
         <v>16.36</v>
       </c>
-      <c r="J9" s="2"/>
+      <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="13" t="s">
+      <c r="A10" s="1"/>
+      <c r="B10" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="13">
         <v>24010</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="15">
         <v>18.12</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="15">
         <v>1.462</v>
       </c>
-      <c r="H10" s="21">
+      <c r="H10" s="15">
         <v>12.93</v>
       </c>
-      <c r="I10" s="21">
+      <c r="I10" s="15">
         <v>21.07</v>
       </c>
-      <c r="J10" s="2"/>
+      <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="29" t="s">
+      <c r="A11" s="1"/>
+      <c r="B11" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="31">
+      <c r="E11" s="23">
         <v>4616</v>
       </c>
-      <c r="F11" s="32">
+      <c r="F11" s="24">
         <v>2.4790000000000001</v>
       </c>
-      <c r="G11" s="32">
+      <c r="G11" s="24">
         <v>1.202</v>
       </c>
-      <c r="H11" s="32">
+      <c r="H11" s="24">
         <v>1</v>
       </c>
-      <c r="I11" s="32">
+      <c r="I11" s="24">
         <v>4</v>
       </c>
-      <c r="J11" s="2"/>
+      <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="2"/>
+      <c r="A12" s="1"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1413,326 +1768,1332 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="58" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="64.796875" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.796875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="64.796875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.796875" style="8" customWidth="1"/>
     <col min="5" max="9" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="2"/>
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" ht="18" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="4"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="13" t="s">
+      <c r="A4" s="1"/>
+      <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="27">
+      <c r="F4" s="19">
         <v>-9.8799999999999999E-2</v>
       </c>
-      <c r="G4" s="27">
+      <c r="G4" s="19">
         <v>0.222</v>
       </c>
-      <c r="H4" s="27">
+      <c r="H4" s="19">
         <v>-1.8360000000000001</v>
       </c>
-      <c r="I4" s="27">
+      <c r="I4" s="19">
         <v>1.349</v>
       </c>
-      <c r="J4" s="2"/>
+      <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" ht="102" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="15" t="s">
+      <c r="A5" s="1"/>
+      <c r="B5" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="28">
+      <c r="F5" s="20">
         <v>0.76300000000000001</v>
       </c>
-      <c r="G5" s="28">
+      <c r="G5" s="20">
         <v>0.42499999999999999</v>
       </c>
-      <c r="H5" s="28">
+      <c r="H5" s="20">
         <v>0</v>
       </c>
-      <c r="I5" s="28">
+      <c r="I5" s="20">
         <v>1</v>
       </c>
-      <c r="J5" s="2"/>
+      <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" ht="68" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="13" t="s">
+      <c r="A6" s="1"/>
+      <c r="B6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="27">
+      <c r="F6" s="19">
         <v>52.4</v>
       </c>
-      <c r="G6" s="27">
+      <c r="G6" s="19">
         <v>11.99</v>
       </c>
-      <c r="H6" s="27">
+      <c r="H6" s="19">
         <v>18.82</v>
       </c>
-      <c r="I6" s="27">
+      <c r="I6" s="19">
         <v>77.760000000000005</v>
       </c>
-      <c r="J6" s="2"/>
+      <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" ht="102" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="15" t="s">
+      <c r="A7" s="1"/>
+      <c r="B7" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="20">
         <v>1.4430000000000001</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G7" s="20">
         <v>0.46899999999999997</v>
       </c>
-      <c r="H7" s="28">
+      <c r="H7" s="20">
         <v>-0.499</v>
       </c>
-      <c r="I7" s="28">
+      <c r="I7" s="20">
         <v>2.2360000000000002</v>
       </c>
-      <c r="J7" s="2"/>
+      <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="13" t="s">
+      <c r="A8" s="1"/>
+      <c r="B8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="33">
+      <c r="F8" s="19">
         <v>10.57</v>
       </c>
-      <c r="G8" s="33">
+      <c r="G8" s="19">
         <v>0.61199999999999999</v>
       </c>
-      <c r="H8" s="33">
+      <c r="H8" s="19">
         <v>7.2130000000000001</v>
       </c>
-      <c r="I8" s="33">
+      <c r="I8" s="19">
         <v>11.73</v>
       </c>
-      <c r="J8" s="2"/>
+      <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="15" t="s">
+      <c r="A9" s="1"/>
+      <c r="B9" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="34">
+      <c r="F9" s="20">
         <v>13.55</v>
       </c>
-      <c r="G9" s="34">
+      <c r="G9" s="20">
         <v>1.349</v>
       </c>
-      <c r="H9" s="34">
+      <c r="H9" s="20">
         <v>9.1950000000000003</v>
       </c>
-      <c r="I9" s="34">
+      <c r="I9" s="20">
         <v>16.36</v>
       </c>
-      <c r="J9" s="2"/>
+      <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="13" t="s">
+      <c r="A10" s="1"/>
+      <c r="B10" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="27">
+      <c r="F10" s="19">
         <v>18.079999999999998</v>
       </c>
-      <c r="G10" s="27">
+      <c r="G10" s="19">
         <v>1.1539999999999999</v>
       </c>
-      <c r="H10" s="27">
+      <c r="H10" s="19">
         <v>13.14</v>
       </c>
-      <c r="I10" s="27">
+      <c r="I10" s="19">
         <v>21.04</v>
       </c>
-      <c r="J10" s="2"/>
+      <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="29" t="s">
+      <c r="A11" s="1"/>
+      <c r="B11" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="31">
+      <c r="E11" s="23">
         <v>968</v>
       </c>
-      <c r="F11" s="35">
+      <c r="F11" s="25">
         <v>2.3410000000000002</v>
       </c>
-      <c r="G11" s="35">
+      <c r="G11" s="25">
         <v>1.173</v>
       </c>
-      <c r="H11" s="35">
+      <c r="H11" s="25">
         <v>1</v>
       </c>
-      <c r="I11" s="35">
+      <c r="I11" s="25">
         <v>4</v>
       </c>
-      <c r="J11" s="2"/>
+      <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="2"/>
+      <c r="A12" s="1"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="63" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DDF0221-5DC8-E94D-81A9-E492E861F9F4}">
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.59765625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.59765625" style="26"/>
+    <col min="2" max="2" width="54.19921875" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.59765625" style="26"/>
+    <col min="4" max="4" width="11.796875" style="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.59765625" style="26"/>
+    <col min="6" max="6" width="14.19921875" style="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" style="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.59765625" style="26"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="28"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="29"/>
+    </row>
+    <row r="2" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="28"/>
+      <c r="B2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="35"/>
+      <c r="D2" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2" s="35"/>
+      <c r="F2" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="28"/>
+      <c r="B3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="28"/>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="28"/>
+      <c r="B5" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="28"/>
+      <c r="B6" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="28"/>
+      <c r="B7" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="28"/>
+      <c r="B8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="28"/>
+      <c r="B9" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="28"/>
+      <c r="B10" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="28"/>
+      <c r="B11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="28"/>
+      <c r="B12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="28"/>
+      <c r="B13" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="28"/>
+      <c r="B14" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="28"/>
+      <c r="B15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="28"/>
+      <c r="B16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="28"/>
+      <c r="B17" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="28"/>
+      <c r="B18" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="28"/>
+      <c r="B19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="G19" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="28"/>
+      <c r="B20" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="G20" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="28"/>
+      <c r="B21" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="28"/>
+      <c r="B22" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+    </row>
+    <row r="23" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="28"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+    </row>
+    <row r="24" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="73" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DA1357B-44E1-B647-A5F0-0457B85EEE59}">
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.59765625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.59765625" style="26"/>
+    <col min="2" max="2" width="54.19921875" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.59765625" style="26"/>
+    <col min="4" max="4" width="11.796875" style="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.59765625" style="26"/>
+    <col min="6" max="6" width="14.19921875" style="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" style="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.59765625" style="26"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="28"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="29"/>
+    </row>
+    <row r="2" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="28"/>
+      <c r="B2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="35"/>
+      <c r="D2" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2" s="35"/>
+      <c r="F2" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="28"/>
+      <c r="B3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="28"/>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="28"/>
+      <c r="B5" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="28"/>
+      <c r="B6" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="28"/>
+      <c r="B7" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="28"/>
+      <c r="B8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="28"/>
+      <c r="B9" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="28"/>
+      <c r="B10" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="28"/>
+      <c r="B11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="28"/>
+      <c r="B12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="G12" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="28"/>
+      <c r="B13" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="28"/>
+      <c r="B14" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="28"/>
+      <c r="B15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="F15" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="G15" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="28"/>
+      <c r="B16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="G16" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="28"/>
+      <c r="B17" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="G17" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="28"/>
+      <c r="B18" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="G18" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="28"/>
+      <c r="B19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="G19" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="28"/>
+      <c r="B20" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="G20" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="28"/>
+      <c r="B21" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="28"/>
+      <c r="B22" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+    </row>
+    <row r="23" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="28"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+    </row>
+    <row r="24" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="73" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>